--- a/Runs/Final_PDI1_RLU2/HepG2/IV_Validation/Multiplex_Validation_set.xlsx
+++ b/Runs/Final_PDI1_RLU2/HepG2/IV_Validation/Multiplex_Validation_set.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N61"/>
+  <dimension ref="A1:O73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -501,227 +501,253 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
+          <t>Source_cell</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Double_bonds</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4080</v>
+        <v>10824</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>DSPC</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>6.12</v>
+        <v>9.3028</v>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>8</v>
-      </c>
+      <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr"/>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" t="n">
         <v>40</v>
       </c>
       <c r="J2" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K2" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.01650155767516735</v>
+        <v>-0.03003479733596201</v>
       </c>
       <c r="M2" t="n">
-        <v>1.880644233335514</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+        <v>1.782758310868987</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5431</v>
+        <v>43165</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>14PA</t>
+          <t>DSPC</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>11.8502</v>
+        <v>6.12</v>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>8</v>
       </c>
       <c r="G3" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I3" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="J3" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K3" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.01503499446979781</v>
+        <v>-0.02143498983178956</v>
       </c>
       <c r="M3" t="n">
-        <v>1.891251884999952</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+        <v>1.844960718546666</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4751</v>
+        <v>22557</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>14PA</t>
+          <t>DOPE</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>11.8502</v>
+        <v>9.784000000000001</v>
       </c>
       <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I4" t="n">
-        <v>350</v>
+        <v>50</v>
       </c>
       <c r="J4" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="K4" t="n">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.009422402044046631</v>
+        <v>-0.01717703625392403</v>
       </c>
       <c r="M4" t="n">
-        <v>1.931847766015411</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
+        <v>1.875758496775368</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>N2a</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2392</v>
+        <v>24965</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>DOTAP</t>
+          <t>DOPE</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>12.515</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
+        <v>9.784000000000001</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J5" t="n">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="K5" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.007059156024516041</v>
+        <v>-0.01717703625392403</v>
       </c>
       <c r="M5" t="n">
-        <v>1.948941124474675</v>
-      </c>
-      <c r="N5" t="n">
-        <v>2</v>
-      </c>
+        <v>1.875758496775368</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>N2a</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2103</v>
+        <v>4793</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>DOPE</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>9.784000000000001</v>
+        <v>9.3028</v>
       </c>
       <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+      <c r="I6" t="n">
+        <v>70</v>
+      </c>
+      <c r="J6" t="n">
+        <v>25</v>
+      </c>
+      <c r="K6" t="n">
         <v>2</v>
       </c>
-      <c r="F6" t="n">
-        <v>9</v>
-      </c>
-      <c r="G6" t="n">
-        <v>36</v>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-      <c r="I6" t="n">
-        <v>350</v>
-      </c>
-      <c r="J6" t="n">
-        <v>55</v>
-      </c>
-      <c r="K6" t="n">
-        <v>165</v>
-      </c>
       <c r="L6" t="n">
-        <v>-0.006906098516683367</v>
+        <v>-0.01650308950736544</v>
       </c>
       <c r="M6" t="n">
-        <v>1.950048189428829</v>
-      </c>
-      <c r="N6" t="n">
-        <v>2</v>
+        <v>1.880633153593226</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>HEK293</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>404</v>
+        <v>11975</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -734,34 +760,43 @@
       <c r="D7" t="n">
         <v>9.3028</v>
       </c>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
       <c r="F7" t="n">
         <v>10</v>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>36</v>
+      </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="I7" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="J7" t="n">
-        <v>75</v>
+        <v>25</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.006882847767841592</v>
+        <v>-0.01244217206905853</v>
       </c>
       <c r="M7" t="n">
-        <v>1.950216362095202</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+        <v>1.9100057694245</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>HepG2</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5208</v>
+        <v>62723</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -780,32 +815,37 @@
       <c r="F8" t="n">
         <v>8</v>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>28</v>
+      </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J8" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.006239101711688582</v>
+        <v>-0.008895403984572203</v>
       </c>
       <c r="M8" t="n">
-        <v>1.954872577319357</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
+        <v>1.935659542979589</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>HepG2</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>624</v>
+        <v>5419</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -819,113 +859,136 @@
         <v>9.3028</v>
       </c>
       <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I9" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="J9" t="n">
         <v>25</v>
       </c>
       <c r="K9" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.005623832380281379</v>
+        <v>-0.00884674169584135</v>
       </c>
       <c r="M9" t="n">
-        <v>1.959322820393425</v>
-      </c>
-      <c r="N9" t="n">
-        <v>1</v>
-      </c>
+        <v>1.936011517313979</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>N2a</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>5928</v>
+        <v>5166</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>DDAB</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+        <v>9.3028</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3</v>
+      </c>
+      <c r="F10" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" t="n">
+        <v>36</v>
+      </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I10" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J10" t="n">
         <v>25</v>
       </c>
       <c r="K10" t="n">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.003542177008240499</v>
+        <v>-0.008429618827395766</v>
       </c>
       <c r="M10" t="n">
-        <v>1.974379433699397</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
+        <v>1.939028567021446</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>HepG2</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1513</v>
+        <v>45502</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>DOPE</t>
+          <t>DSPC</t>
         </is>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>9.784000000000001</v>
-      </c>
-      <c r="E11" t="inlineStr"/>
+        <v>6.12</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
       <c r="F11" t="n">
-        <v>9</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="G11" t="n">
+        <v>36</v>
+      </c>
       <c r="H11" t="n">
         <v>6</v>
       </c>
       <c r="I11" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="J11" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="K11" t="n">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.003117709644971838</v>
+        <v>-0.007752067649690714</v>
       </c>
       <c r="M11" t="n">
-        <v>1.977449606137919</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+        <v>1.943929294689787</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>HepG2</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>5734</v>
+        <v>62904</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -938,168 +1001,182 @@
       <c r="D12" t="n">
         <v>11.8502</v>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>28</v>
+      </c>
       <c r="H12" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I12" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="J12" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="K12" t="n">
-        <v>135</v>
+        <v>7</v>
       </c>
       <c r="L12" t="n">
-        <v>-0.00297813301635171</v>
+        <v>-0.007674327770538419</v>
       </c>
       <c r="M12" t="n">
-        <v>1.978459163892728</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
+        <v>1.944491587235695</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>HepG2</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>5375</v>
+        <v>12292</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>14PA</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>11.8502</v>
-      </c>
-      <c r="E13" t="n">
-        <v>2</v>
-      </c>
+        <v>9.3028</v>
+      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>8</v>
-      </c>
-      <c r="G13" t="n">
-        <v>28</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I13" t="n">
-        <v>350</v>
+        <v>20</v>
       </c>
       <c r="J13" t="n">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="K13" t="n">
-        <v>165</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.002709603133687222</v>
+        <v>-0.006980859195565976</v>
       </c>
       <c r="M13" t="n">
-        <v>1.98040144053404</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
+        <v>1.949507445438471</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>ARPE19</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4704</v>
+        <v>5265</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>14PA</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C14" t="n">
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>11.8502</v>
+        <v>9.3028</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H14" t="n">
+        <v>7</v>
+      </c>
+      <c r="I14" t="n">
+        <v>30</v>
+      </c>
+      <c r="J14" t="n">
+        <v>70</v>
+      </c>
+      <c r="K14" t="n">
         <v>5</v>
       </c>
-      <c r="I14" t="n">
-        <v>40</v>
-      </c>
-      <c r="J14" t="n">
-        <v>25</v>
-      </c>
-      <c r="K14" t="n">
-        <v>65</v>
-      </c>
       <c r="L14" t="n">
-        <v>-0.002512091342699267</v>
+        <v>-0.006707855292591367</v>
       </c>
       <c r="M14" t="n">
-        <v>1.981830043318256</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>1.951482082668687</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>HepG2</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>1610</v>
+        <v>7506</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>DOPE</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>9.784000000000001</v>
-      </c>
-      <c r="E15" t="n">
-        <v>2</v>
-      </c>
+        <v>9.3028</v>
+      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="n">
         <v>9</v>
       </c>
-      <c r="G15" t="n">
-        <v>36</v>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
       <c r="I15" t="n">
-        <v>250</v>
+        <v>40</v>
       </c>
       <c r="J15" t="n">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="K15" t="n">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.002479157988414739</v>
+        <v>-0.006707855292591367</v>
       </c>
       <c r="M15" t="n">
-        <v>1.982068250269796</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+        <v>1.951482082668687</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>ARPE19</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>1816</v>
+        <v>21125</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1112,122 +1189,145 @@
       <c r="D16" t="n">
         <v>9.784000000000001</v>
       </c>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>2</v>
+      </c>
       <c r="F16" t="n">
         <v>9</v>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>36</v>
+      </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I16" t="n">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="J16" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K16" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.002083402401346401</v>
+        <v>-0.006635017330179977</v>
       </c>
       <c r="M16" t="n">
-        <v>1.984930750431061</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+        <v>1.952008919650808</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="O16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5099</v>
+        <v>21292</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>14PA</t>
+          <t>DOPE</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>11.8502</v>
+        <v>9.784000000000001</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
       </c>
       <c r="F17" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G17" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="H17" t="n">
         <v>7</v>
       </c>
       <c r="I17" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="J17" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="K17" t="n">
-        <v>65</v>
+        <v>140</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.002033495682020369</v>
+        <v>-0.004425013601504543</v>
       </c>
       <c r="M17" t="n">
-        <v>1.985291725731947</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+        <v>1.967993876620318</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="O17" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>2436</v>
+        <v>59979</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>DOTAP</t>
+          <t>14PA</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>12.515</v>
+        <v>11.8502</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
-      </c>
-      <c r="G18" t="n">
-        <v>36</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I18" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J18" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K18" t="n">
-        <v>85</v>
+        <v>3</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.001824699625288395</v>
+        <v>-0.004259859650917814</v>
       </c>
       <c r="M18" t="n">
-        <v>1.986801947610289</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+        <v>1.969188435144912</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>HEK293</t>
+        </is>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>888</v>
+        <v>2240</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
@@ -1241,92 +1341,102 @@
         <v>9.3028</v>
       </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="n">
-        <v>10</v>
-      </c>
+      <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I19" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J19" t="n">
-        <v>25</v>
+        <v>70</v>
       </c>
       <c r="K19" t="n">
-        <v>85</v>
+        <v>160</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.001540206968965359</v>
+        <v>-0.00280533140594285</v>
       </c>
       <c r="M19" t="n">
-        <v>1.988859682993474</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+        <v>1.979709037940815</v>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="O19" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>1228</v>
+        <v>47698</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>DOPE</t>
+          <t>DSPC</t>
         </is>
       </c>
       <c r="C20" t="n">
         <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>9.784000000000001</v>
+        <v>6.12</v>
       </c>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I20" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J20" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="K20" t="n">
-        <v>35</v>
+        <v>160</v>
       </c>
       <c r="L20" t="n">
-        <v>-0.0004654005258256994</v>
+        <v>-0.002587938851310965</v>
       </c>
       <c r="M20" t="n">
-        <v>1.996633757996703</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+        <v>1.981281438288468</v>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>ARPE19</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1372</v>
+        <v>13512</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>DOPE</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>9.784000000000001</v>
+        <v>9.3028</v>
       </c>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I21" t="n">
         <v>40</v>
@@ -1335,19 +1445,24 @@
         <v>35</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="L21" t="n">
-        <v>-0.0004333818421975027</v>
+        <v>-0.001164561863714198</v>
       </c>
       <c r="M21" t="n">
-        <v>1.996865349135386</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>1.991576724039755</v>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>ARPE19</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>4584</v>
+        <v>49643</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
@@ -1360,170 +1475,178 @@
       <c r="D22" t="n">
         <v>6.12</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
+      <c r="E22" t="inlineStr"/>
       <c r="F22" t="n">
         <v>8</v>
       </c>
-      <c r="G22" t="n">
-        <v>36</v>
-      </c>
+      <c r="G22" t="inlineStr"/>
       <c r="H22" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I22" t="n">
-        <v>40</v>
+        <v>450</v>
       </c>
       <c r="J22" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K22" t="n">
-        <v>165</v>
+        <v>80</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0001786129191680006</v>
+        <v>-0.0008282274458073301</v>
       </c>
       <c r="M22" t="n">
-        <v>1.998708092755658</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
+        <v>1.994009430884475</v>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>ARPE19</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>5150</v>
+        <v>53928</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>14PA</t>
+          <t>DSPC</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>11.8502</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2</v>
-      </c>
+        <v>6.12</v>
+      </c>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="n">
         <v>8</v>
       </c>
-      <c r="G23" t="n">
-        <v>28</v>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="I23" t="n">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="J23" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K23" t="n">
-        <v>135</v>
+        <v>40</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0009456373262494998</v>
+        <v>0.001586453115836004</v>
       </c>
       <c r="M23" t="n">
-        <v>2.006839794780763</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
+        <v>2.011474815386842</v>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>N2a</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>3584</v>
+        <v>77997</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>DSPC</t>
+          <t>DDAB</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="E24" t="inlineStr"/>
+        <v>12.73</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
       <c r="F24" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I24" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="J24" t="n">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="K24" t="n">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="L24" t="n">
-        <v>0.00372416663737608</v>
+        <v>0.001856111368603344</v>
       </c>
       <c r="M24" t="n">
-        <v>2.026936897288141</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+        <v>2.013425253529108</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>HEK293</t>
+        </is>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>744</v>
+        <v>52416</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>18PG</t>
+          <t>DSPC</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>9.3028</v>
-      </c>
-      <c r="E25" t="n">
-        <v>3</v>
-      </c>
-      <c r="F25" t="n">
-        <v>10</v>
-      </c>
+        <v>6.12</v>
+      </c>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="n">
         <v>9</v>
       </c>
       <c r="I25" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J25" t="n">
         <v>25</v>
       </c>
       <c r="K25" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L25" t="n">
-        <v>0.004509823881546087</v>
+        <v>0.002290458689242388</v>
       </c>
       <c r="M25" t="n">
-        <v>2.032619556135223</v>
-      </c>
-      <c r="N25" t="n">
-        <v>1</v>
+        <v>2.01656688769929</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>2581</v>
+        <v>37802</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
@@ -1536,34 +1659,43 @@
       <c r="D26" t="n">
         <v>12.515</v>
       </c>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
       <c r="F26" t="n">
         <v>4</v>
       </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I26" t="n">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="J26" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="K26" t="n">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01429722427897278</v>
+        <v>0.005445221599082355</v>
       </c>
       <c r="M26" t="n">
-        <v>2.10341182320981</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+        <v>2.039385287826163</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>HEK293</t>
+        </is>
+      </c>
+      <c r="O26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>1333</v>
+        <v>26131</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
@@ -1582,28 +1714,33 @@
       </c>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I27" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J27" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="K27" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L27" t="n">
-        <v>0.01746571851148264</v>
+        <v>0.007983490450456647</v>
       </c>
       <c r="M27" t="n">
-        <v>2.126329541993554</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+        <v>2.057744586428153</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>ARPE19</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2106</v>
+        <v>23740</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
@@ -1622,72 +1759,82 @@
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I28" t="n">
         <v>250</v>
       </c>
       <c r="J28" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="K28" t="n">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="L28" t="n">
-        <v>0.0177869453578226</v>
+        <v>0.007983490450456647</v>
       </c>
       <c r="M28" t="n">
-        <v>2.128652975773131</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+        <v>2.057744586428153</v>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>ARPE19</t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4228</v>
+        <v>10332</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>DSPC</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.12</v>
+        <v>9.3028</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
         <v>10</v>
       </c>
       <c r="I29" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J29" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="L29" t="n">
-        <v>0.02800587909192985</v>
+        <v>0.009554386502081685</v>
       </c>
       <c r="M29" t="n">
-        <v>2.202566523471928</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
+        <v>2.069106877569557</v>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>HEK293</t>
+        </is>
+      </c>
+      <c r="O29" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>1823</v>
+        <v>27736</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
@@ -1700,84 +1847,84 @@
       <c r="D30" t="n">
         <v>9.784000000000001</v>
       </c>
-      <c r="E30" t="n">
-        <v>2</v>
-      </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="n">
         <v>9</v>
       </c>
-      <c r="G30" t="n">
-        <v>36</v>
-      </c>
+      <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I30" t="n">
-        <v>350</v>
+        <v>40</v>
       </c>
       <c r="J30" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="K30" t="n">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="L30" t="n">
-        <v>0.03533872203584814</v>
+        <v>0.012337743856023</v>
       </c>
       <c r="M30" t="n">
-        <v>2.255604976485289</v>
-      </c>
-      <c r="N30" t="n">
-        <v>2</v>
-      </c>
+        <v>2.089238901310614</v>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>N2a</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>199</v>
+        <v>26186</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>18PG</t>
+          <t>DOPE</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>9.3028</v>
-      </c>
-      <c r="E31" t="n">
-        <v>3</v>
-      </c>
+        <v>9.784000000000001</v>
+      </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I31" t="n">
-        <v>350</v>
+        <v>80</v>
       </c>
       <c r="J31" t="n">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="K31" t="n">
-        <v>4</v>
+        <v>160</v>
       </c>
       <c r="L31" t="n">
-        <v>0.03573560890239461</v>
+        <v>0.0177869453578226</v>
       </c>
       <c r="M31" t="n">
-        <v>2.25847565919102</v>
-      </c>
-      <c r="N31" t="n">
-        <v>1</v>
-      </c>
+        <v>2.128652975773131</v>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t>ARPE19</t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>969</v>
+        <v>9159</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
@@ -1790,34 +1937,45 @@
       <c r="D32" t="n">
         <v>9.3028</v>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>3</v>
+      </c>
       <c r="F32" t="n">
         <v>10</v>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="n">
+        <v>36</v>
+      </c>
       <c r="H32" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I32" t="n">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="J32" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="K32" t="n">
-        <v>4</v>
+        <v>120</v>
       </c>
       <c r="L32" t="n">
-        <v>0.04392131716598599</v>
+        <v>0.01814153675186382</v>
       </c>
       <c r="M32" t="n">
-        <v>2.317682887061577</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>2.131217735326231</v>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="O32" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>970</v>
+        <v>3690</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
@@ -1831,341 +1989,387 @@
         <v>9.3028</v>
       </c>
       <c r="E33" t="inlineStr"/>
-      <c r="F33" t="n">
-        <v>10</v>
-      </c>
+      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I33" t="n">
-        <v>250</v>
+        <v>150</v>
       </c>
       <c r="J33" t="n">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="K33" t="n">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="L33" t="n">
-        <v>0.04392131716598599</v>
+        <v>0.03558704502265461</v>
       </c>
       <c r="M33" t="n">
-        <v>2.317682887061577</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+        <v>2.257401096648861</v>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="O33" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>1193</v>
+        <v>305</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>DOPE</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>9.784000000000001</v>
+        <v>9.3028</v>
       </c>
       <c r="E34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
-        <v>9</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="G34" t="n">
+        <v>36</v>
+      </c>
       <c r="H34" t="n">
         <v>5</v>
       </c>
       <c r="I34" t="n">
-        <v>70</v>
+        <v>350</v>
       </c>
       <c r="J34" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="K34" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L34" t="n">
-        <v>0.05721772776438722</v>
+        <v>0.03573560890239461</v>
       </c>
       <c r="M34" t="n">
-        <v>2.413855824919813</v>
-      </c>
-      <c r="N34" t="n">
-        <v>2</v>
+        <v>2.25847565919102</v>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="O34" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1381</v>
+        <v>7653</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>DOPE</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>9.784000000000001</v>
-      </c>
-      <c r="E35" t="n">
-        <v>2</v>
-      </c>
-      <c r="F35" t="n">
-        <v>9</v>
-      </c>
+        <v>9.3028</v>
+      </c>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="I35" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="J35" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K35" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>0.05721772776438722</v>
+        <v>0.03892626252554336</v>
       </c>
       <c r="M35" t="n">
-        <v>2.413855824919813</v>
-      </c>
-      <c r="N35" t="n">
-        <v>2</v>
+        <v>2.281553656847255</v>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="O35" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>95</v>
+        <v>28668</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>18PG</t>
+          <t>DOPE</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D36" t="n">
-        <v>9.3028</v>
+        <v>9.784000000000001</v>
       </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I36" t="n">
-        <v>350</v>
+        <v>250</v>
       </c>
       <c r="J36" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K36" t="n">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="L36" t="n">
-        <v>0.06963342225724016</v>
+        <v>0.05102587919183372</v>
       </c>
       <c r="M36" t="n">
-        <v>2.503658543186618</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>2.369070184194533</v>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>ARPE19</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1045</v>
+        <v>15072</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>18PG</t>
+          <t>DOPE</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D37" t="n">
-        <v>9.3028</v>
+        <v>9.784000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="I37" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="J37" t="n">
         <v>55</v>
       </c>
       <c r="K37" t="n">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="L37" t="n">
-        <v>0.08908562203036288</v>
+        <v>0.05721772776438722</v>
       </c>
       <c r="M37" t="n">
-        <v>2.644356304145615</v>
-      </c>
-      <c r="N37" t="n">
-        <v>1</v>
+        <v>2.413855824919813</v>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>HEK293</t>
+        </is>
+      </c>
+      <c r="O37" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1163</v>
+        <v>11961</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>DOPE</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>9.784000000000001</v>
-      </c>
-      <c r="E38" t="inlineStr"/>
+        <v>9.3028</v>
+      </c>
+      <c r="E38" t="n">
+        <v>3</v>
+      </c>
       <c r="F38" t="n">
-        <v>9</v>
-      </c>
-      <c r="G38" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="G38" t="n">
+        <v>36</v>
+      </c>
       <c r="H38" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I38" t="n">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="J38" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="K38" t="n">
-        <v>4</v>
+        <v>180</v>
       </c>
       <c r="L38" t="n">
-        <v>0.1668117663801878</v>
+        <v>0.06201228246350605</v>
       </c>
       <c r="M38" t="n">
-        <v>3.206549506227899</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>2.448534839058539</v>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="O38" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1159</v>
+        <v>2711</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DOPE</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>9.784000000000001</v>
+        <v>9.3028</v>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I39" t="n">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="J39" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="K39" t="n">
         <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>0.1668117663801878</v>
+        <v>0.06422298270822879</v>
       </c>
       <c r="M39" t="n">
-        <v>3.206549506227899</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+        <v>2.464524833928619</v>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>ARPE19</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1739</v>
+        <v>12059</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>DOPE</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>9.784000000000001</v>
-      </c>
-      <c r="E40" t="inlineStr"/>
+        <v>9.3028</v>
+      </c>
+      <c r="E40" t="n">
+        <v>3</v>
+      </c>
       <c r="F40" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I40" t="n">
-        <v>350</v>
+        <v>70</v>
       </c>
       <c r="J40" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="K40" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>0.1725863473433529</v>
+        <v>0.06529106513449881</v>
       </c>
       <c r="M40" t="n">
-        <v>3.248317050334471</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+        <v>2.47225027411783</v>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>HEK293</t>
+        </is>
+      </c>
+      <c r="O40" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>3505</v>
+        <v>747</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>DSPC</t>
+          <t>18PG</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>6.12</v>
+        <v>9.3028</v>
       </c>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
-        <v>8</v>
-      </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
         <v>5</v>
@@ -2174,22 +2378,29 @@
         <v>70</v>
       </c>
       <c r="J41" t="n">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="K41" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="L41" t="n">
-        <v>0.1993239967807905</v>
+        <v>0.1107627099162783</v>
       </c>
       <c r="M41" t="n">
-        <v>3.441710468715458</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>2.801146680824441</v>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="O41" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>258</v>
+        <v>481</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
@@ -2203,33 +2414,38 @@
         <v>9.3028</v>
       </c>
       <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
+      <c r="F42" t="n">
+        <v>10</v>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I42" t="n">
-        <v>250</v>
+        <v>70</v>
       </c>
       <c r="J42" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="K42" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="L42" t="n">
-        <v>0.3131292963961702</v>
+        <v>0.114923157823152</v>
       </c>
       <c r="M42" t="n">
-        <v>4.264864200833499</v>
-      </c>
-      <c r="N42" t="n">
-        <v>1</v>
-      </c>
+        <v>2.831239200534859</v>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>N2a</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5989</v>
+        <v>77583</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
@@ -2242,118 +2458,133 @@
       <c r="D43" t="n">
         <v>12.73</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
-        <v>0</v>
-      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I43" t="n">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="J43" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K43" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L43" t="n">
-        <v>0.3513222893505912</v>
+        <v>0.3131021987083364</v>
       </c>
       <c r="M43" t="n">
-        <v>4.541114118872826</v>
-      </c>
-      <c r="N43" t="n">
+        <v>4.264668203257398</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="O43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>2516</v>
+        <v>14765</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>DOTAP</t>
+          <t>DOPE</t>
         </is>
       </c>
       <c r="C44" t="n">
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>12.515</v>
+        <v>9.784000000000001</v>
       </c>
       <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
+      <c r="F44" t="n">
+        <v>9</v>
+      </c>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I44" t="n">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="J44" t="n">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="K44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L44" t="n">
-        <v>0.4411794283489833</v>
+        <v>0.3346279218194098</v>
       </c>
       <c r="M44" t="n">
-        <v>5.191050805248196</v>
-      </c>
-      <c r="N44" t="n">
-        <v>2</v>
-      </c>
+        <v>4.42036375851979</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>ARPE19</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>3329</v>
+        <v>74936</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>DOTAP</t>
+          <t>DDAB</t>
         </is>
       </c>
       <c r="C45" t="n">
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>12.515</v>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
+        <v>12.73</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I45" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="J45" t="n">
         <v>65</v>
       </c>
       <c r="K45" t="n">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="L45" t="n">
-        <v>0.4480069592268633</v>
+        <v>0.3513222893505912</v>
       </c>
       <c r="M45" t="n">
-        <v>5.240434336087903</v>
-      </c>
-      <c r="N45" t="n">
-        <v>2</v>
+        <v>4.541114118872826</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>HEK293</t>
+        </is>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5969</v>
+        <v>72778</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
@@ -2366,80 +2597,88 @@
       <c r="D46" t="n">
         <v>12.73</v>
       </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I46" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J46" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K46" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L46" t="n">
-        <v>0.4552599468608189</v>
+        <v>0.3513222893505912</v>
       </c>
       <c r="M46" t="n">
-        <v>5.292895195644303</v>
-      </c>
-      <c r="N46" t="n">
+        <v>4.541114118872826</v>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>HEK293</t>
+        </is>
+      </c>
+      <c r="O46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>3283</v>
+        <v>19359</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>DOTAP</t>
+          <t>DOPE</t>
         </is>
       </c>
       <c r="C47" t="n">
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>12.515</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
+        <v>9.784000000000001</v>
+      </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="n">
-        <v>4</v>
-      </c>
-      <c r="G47" t="n">
-        <v>36</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G47" t="inlineStr"/>
       <c r="H47" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="I47" t="n">
         <v>350</v>
       </c>
       <c r="J47" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L47" t="n">
-        <v>0.4829418024397894</v>
+        <v>0.361270691031435</v>
       </c>
       <c r="M47" t="n">
-        <v>5.493118057046996</v>
-      </c>
-      <c r="N47" t="n">
-        <v>2</v>
-      </c>
+        <v>4.613070908230369</v>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>N2a</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>3126</v>
+        <v>33757</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
@@ -2452,40 +2691,39 @@
       <c r="D48" t="n">
         <v>12.515</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>4</v>
-      </c>
-      <c r="G48" t="n">
-        <v>36</v>
-      </c>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
       <c r="H48" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I48" t="n">
-        <v>250</v>
+        <v>50</v>
       </c>
       <c r="J48" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="K48" t="n">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="L48" t="n">
-        <v>0.4839720089506235</v>
+        <v>0.4693044221793998</v>
       </c>
       <c r="M48" t="n">
-        <v>5.50056954073986</v>
-      </c>
-      <c r="N48" t="n">
+        <v>5.394478885623599</v>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="O48" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>2721</v>
+        <v>29038</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
@@ -2498,40 +2736,39 @@
       <c r="D49" t="n">
         <v>12.515</v>
       </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+      <c r="I49" t="n">
+        <v>40</v>
+      </c>
+      <c r="J49" t="n">
+        <v>50</v>
+      </c>
+      <c r="K49" t="n">
         <v>4</v>
       </c>
-      <c r="G49" t="n">
-        <v>36</v>
-      </c>
-      <c r="H49" t="n">
-        <v>7</v>
-      </c>
-      <c r="I49" t="n">
-        <v>70</v>
-      </c>
-      <c r="J49" t="n">
-        <v>45</v>
-      </c>
-      <c r="K49" t="n">
-        <v>7</v>
-      </c>
       <c r="L49" t="n">
-        <v>0.4839720089506235</v>
+        <v>0.480258688393462</v>
       </c>
       <c r="M49" t="n">
-        <v>5.50056954073986</v>
-      </c>
-      <c r="N49" t="n">
+        <v>5.473711093149911</v>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="O49" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>2503</v>
+        <v>28991</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
@@ -2544,34 +2781,45 @@
       <c r="D50" t="n">
         <v>12.515</v>
       </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>4</v>
+      </c>
+      <c r="G50" t="n">
+        <v>36</v>
+      </c>
       <c r="H50" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I50" t="n">
         <v>350</v>
       </c>
       <c r="J50" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="K50" t="n">
         <v>4</v>
       </c>
       <c r="L50" t="n">
-        <v>0.5490151650699316</v>
+        <v>0.5134699010618468</v>
       </c>
       <c r="M50" t="n">
-        <v>5.971026688950816</v>
-      </c>
-      <c r="N50" t="n">
+        <v>5.713927794380337</v>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="O50" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3083</v>
+        <v>31499</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
@@ -2584,38 +2832,39 @@
       <c r="D51" t="n">
         <v>12.515</v>
       </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>4</v>
-      </c>
-      <c r="G51" t="n">
-        <v>36</v>
-      </c>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
       <c r="H51" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I51" t="n">
-        <v>350</v>
+        <v>450</v>
       </c>
       <c r="J51" t="n">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="K51" t="n">
         <v>4</v>
       </c>
       <c r="L51" t="n">
-        <v>0.5745667166391373</v>
+        <v>0.5184127867359554</v>
       </c>
       <c r="M51" t="n">
-        <v>6.155841061450881</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>5.749679686461166</v>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="O51" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1358</v>
+        <v>17115</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
@@ -2637,10 +2886,10 @@
         <v>6</v>
       </c>
       <c r="I52" t="n">
-        <v>250</v>
+        <v>90</v>
       </c>
       <c r="J52" t="n">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="K52" t="n">
         <v>4</v>
@@ -2651,11 +2900,16 @@
       <c r="M52" t="n">
         <v>6.311544283242959</v>
       </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>N2a</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1550</v>
+        <v>14566</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
@@ -2668,38 +2922,39 @@
       <c r="D53" t="n">
         <v>9.784000000000001</v>
       </c>
-      <c r="E53" t="n">
-        <v>2</v>
-      </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="n">
         <v>9</v>
       </c>
-      <c r="G53" t="n">
-        <v>36</v>
-      </c>
+      <c r="G53" t="inlineStr"/>
       <c r="H53" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I53" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="J53" t="n">
         <v>55</v>
       </c>
       <c r="K53" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L53" t="n">
-        <v>0.612252661886544</v>
+        <v>0.5960934996879523</v>
       </c>
       <c r="M53" t="n">
-        <v>6.428423503425373</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+        <v>6.311544283242959</v>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>N2a</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1937</v>
+        <v>17213</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
@@ -2718,68 +2973,82 @@
       </c>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I54" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="J54" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="K54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L54" t="n">
-        <v>0.612252661886544</v>
+        <v>0.5960934996879523</v>
       </c>
       <c r="M54" t="n">
-        <v>6.428423503425373</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+        <v>6.311544283242959</v>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>N2a</t>
+        </is>
+      </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>2317</v>
+        <v>14584</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>DOTAP</t>
+          <t>DOPE</t>
         </is>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>12.515</v>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
+        <v>9.784000000000001</v>
+      </c>
+      <c r="E55" t="n">
+        <v>2</v>
+      </c>
+      <c r="F55" t="n">
+        <v>9</v>
+      </c>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="n">
         <v>5</v>
       </c>
       <c r="I55" t="n">
-        <v>70</v>
+        <v>250</v>
       </c>
       <c r="J55" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="K55" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L55" t="n">
-        <v>0.7104459271587915</v>
+        <v>0.5960934996879523</v>
       </c>
       <c r="M55" t="n">
-        <v>7.138655391139539</v>
-      </c>
-      <c r="N55" t="n">
+        <v>6.311544283242959</v>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>HEK293</t>
+        </is>
+      </c>
+      <c r="O55" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1749</v>
+        <v>19620</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
@@ -2800,56 +3069,59 @@
       </c>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="I56" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="J56" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="K56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L56" t="n">
-        <v>0.716869392999314</v>
+        <v>0.612252661886544</v>
       </c>
       <c r="M56" t="n">
-        <v>7.185116319564038</v>
-      </c>
-      <c r="N56" t="n">
+        <v>6.428423503425373</v>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>HEK293</t>
+        </is>
+      </c>
+      <c r="O56" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3282</v>
+        <v>21886</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>DOTAP</t>
+          <t>DOPE</t>
         </is>
       </c>
       <c r="C57" t="n">
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>12.515</v>
+        <v>9.784000000000001</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F57" t="n">
-        <v>4</v>
-      </c>
-      <c r="G57" t="n">
-        <v>36</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G57" t="inlineStr"/>
       <c r="H57" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I57" t="n">
-        <v>250</v>
+        <v>60</v>
       </c>
       <c r="J57" t="n">
         <v>65</v>
@@ -2858,62 +3130,68 @@
         <v>4</v>
       </c>
       <c r="L57" t="n">
-        <v>0.7521097710479026</v>
+        <v>0.612252661886544</v>
       </c>
       <c r="M57" t="n">
-        <v>7.440009973989479</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+        <v>6.428423503425373</v>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>HEK293</t>
+        </is>
+      </c>
+      <c r="O57" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>2894</v>
+        <v>14608</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>DOTAP</t>
+          <t>DOPE</t>
         </is>
       </c>
       <c r="C58" t="n">
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>12.515</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
+        <v>9.784000000000001</v>
+      </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="n">
-        <v>4</v>
-      </c>
-      <c r="G58" t="n">
-        <v>36</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G58" t="inlineStr"/>
       <c r="H58" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="I58" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
       <c r="J58" t="n">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="K58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L58" t="n">
-        <v>0.7588540926494021</v>
+        <v>0.6980439728779474</v>
       </c>
       <c r="M58" t="n">
-        <v>7.488791652133125</v>
-      </c>
-      <c r="N58" t="n">
-        <v>2</v>
-      </c>
+        <v>7.048952055826193</v>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>ARPE19</t>
+        </is>
+      </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>2305</v>
+        <v>29214</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
@@ -2926,82 +3204,84 @@
       <c r="D59" t="n">
         <v>12.515</v>
       </c>
-      <c r="E59" t="n">
-        <v>0</v>
-      </c>
-      <c r="F59" t="n">
-        <v>4</v>
-      </c>
-      <c r="G59" t="n">
-        <v>36</v>
-      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
       <c r="H59" t="n">
         <v>5</v>
       </c>
       <c r="I59" t="n">
+        <v>250</v>
+      </c>
+      <c r="J59" t="n">
         <v>70</v>
       </c>
-      <c r="J59" t="n">
-        <v>25</v>
-      </c>
       <c r="K59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L59" t="n">
-        <v>0.801993053127648</v>
+        <v>0.7104459271587915</v>
       </c>
       <c r="M59" t="n">
-        <v>7.800815753272278</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+        <v>7.138655391139539</v>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="O59" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>3078</v>
+        <v>19525</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>DOTAP</t>
+          <t>DOPE</t>
         </is>
       </c>
       <c r="C60" t="n">
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>12.515</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
+        <v>9.784000000000001</v>
+      </c>
+      <c r="E60" t="inlineStr"/>
       <c r="F60" t="n">
-        <v>4</v>
-      </c>
-      <c r="G60" t="n">
-        <v>36</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I60" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="J60" t="n">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="K60" t="n">
         <v>4</v>
       </c>
       <c r="L60" t="n">
-        <v>0.8839038057831911</v>
+        <v>0.716869392999314</v>
       </c>
       <c r="M60" t="n">
-        <v>8.393276227229821</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>7.185116319564038</v>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>N2a</t>
+        </is>
+      </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>2697</v>
+        <v>34014</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
@@ -3027,23 +3307,616 @@
         <v>7</v>
       </c>
       <c r="I61" t="n">
-        <v>70</v>
+        <v>150</v>
       </c>
       <c r="J61" t="n">
+        <v>75</v>
+      </c>
+      <c r="K61" t="n">
+        <v>5</v>
+      </c>
+      <c r="L61" t="n">
+        <v>0.7312718093388721</v>
+      </c>
+      <c r="M61" t="n">
+        <v>7.289288996948063</v>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>HepG2</t>
+        </is>
+      </c>
+      <c r="O61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>33632</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>DOTAP</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1</v>
+      </c>
+      <c r="D62" t="n">
+        <v>12.515</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="n">
+        <v>4</v>
+      </c>
+      <c r="G62" t="n">
+        <v>36</v>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+      <c r="I62" t="n">
+        <v>60</v>
+      </c>
+      <c r="J62" t="n">
+        <v>75</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2</v>
+      </c>
+      <c r="L62" t="n">
+        <v>0.7312718093388721</v>
+      </c>
+      <c r="M62" t="n">
+        <v>7.289288996948063</v>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="O62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>33974</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>DOTAP</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>1</v>
+      </c>
+      <c r="D63" t="n">
+        <v>12.515</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="n">
+        <v>4</v>
+      </c>
+      <c r="G63" t="n">
+        <v>36</v>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+      <c r="I63" t="n">
+        <v>250</v>
+      </c>
+      <c r="J63" t="n">
+        <v>55</v>
+      </c>
+      <c r="K63" t="n">
+        <v>5</v>
+      </c>
+      <c r="L63" t="n">
+        <v>0.7588540926494021</v>
+      </c>
+      <c r="M63" t="n">
+        <v>7.488791652133125</v>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="O63" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>28874</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>DOTAP</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>1</v>
+      </c>
+      <c r="D64" t="n">
+        <v>12.515</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>4</v>
+      </c>
+      <c r="G64" t="n">
+        <v>36</v>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+      <c r="I64" t="n">
+        <v>80</v>
+      </c>
+      <c r="J64" t="n">
+        <v>30</v>
+      </c>
+      <c r="K64" t="n">
+        <v>3</v>
+      </c>
+      <c r="L64" t="n">
+        <v>0.801993053127648</v>
+      </c>
+      <c r="M64" t="n">
+        <v>7.800815753272278</v>
+      </c>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="O64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>31298</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>DOTAP</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>12.515</v>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="n">
+        <v>4</v>
+      </c>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+      <c r="I65" t="n">
+        <v>150</v>
+      </c>
+      <c r="J65" t="n">
         <v>45</v>
       </c>
-      <c r="K61" t="n">
+      <c r="K65" t="n">
+        <v>3</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0.8381560529058737</v>
+      </c>
+      <c r="M65" t="n">
+        <v>8.062382730668183</v>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>N2a</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>31284</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>DOTAP</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>12.515</v>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+      <c r="I66" t="n">
+        <v>150</v>
+      </c>
+      <c r="J66" t="n">
+        <v>35</v>
+      </c>
+      <c r="K66" t="n">
+        <v>3</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0.8381560529058737</v>
+      </c>
+      <c r="M66" t="n">
+        <v>8.062382730668183</v>
+      </c>
+      <c r="N66" t="inlineStr">
+        <is>
+          <t>PC3</t>
+        </is>
+      </c>
+      <c r="O66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>38313</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DOTAP</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>12.515</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="n">
         <v>4</v>
       </c>
-      <c r="L61" t="n">
+      <c r="G67" t="n">
+        <v>36</v>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+      <c r="I67" t="n">
+        <v>200</v>
+      </c>
+      <c r="J67" t="n">
+        <v>25</v>
+      </c>
+      <c r="K67" t="n">
+        <v>2</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0.843611010563545</v>
+      </c>
+      <c r="M67" t="n">
+        <v>8.101838439406121</v>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="O67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>33663</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>DOTAP</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>12.515</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="n">
+        <v>4</v>
+      </c>
+      <c r="G68" t="n">
+        <v>36</v>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
+      </c>
+      <c r="I68" t="n">
+        <v>90</v>
+      </c>
+      <c r="J68" t="n">
+        <v>30</v>
+      </c>
+      <c r="K68" t="n">
+        <v>3</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0.843611010563545</v>
+      </c>
+      <c r="M68" t="n">
+        <v>8.101838439406121</v>
+      </c>
+      <c r="N68" t="inlineStr">
+        <is>
+          <t>B16</t>
+        </is>
+      </c>
+      <c r="O68" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>35914</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>DOTAP</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>12.515</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="n">
+        <v>4</v>
+      </c>
+      <c r="G69" t="n">
+        <v>36</v>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+      <c r="I69" t="n">
+        <v>60</v>
+      </c>
+      <c r="J69" t="n">
+        <v>25</v>
+      </c>
+      <c r="K69" t="n">
+        <v>2</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0.843611010563545</v>
+      </c>
+      <c r="M69" t="n">
+        <v>8.101838439406121</v>
+      </c>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>HepG2</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>36100</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>DOTAP</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>12.515</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="n">
+        <v>4</v>
+      </c>
+      <c r="G70" t="n">
+        <v>36</v>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+      <c r="I70" t="n">
+        <v>150</v>
+      </c>
+      <c r="J70" t="n">
+        <v>50</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3</v>
+      </c>
+      <c r="L70" t="n">
         <v>0.8839038057831911</v>
       </c>
-      <c r="M61" t="n">
+      <c r="M70" t="n">
         <v>8.393276227229821</v>
       </c>
-      <c r="N61" t="n">
-        <v>2</v>
-      </c>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>HepG2</t>
+        </is>
+      </c>
+      <c r="O70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>33674</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>DOTAP</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>12.515</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>4</v>
+      </c>
+      <c r="G71" t="n">
+        <v>36</v>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+      <c r="I71" t="n">
+        <v>60</v>
+      </c>
+      <c r="J71" t="n">
+        <v>35</v>
+      </c>
+      <c r="K71" t="n">
+        <v>3</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0.8839038057831911</v>
+      </c>
+      <c r="M71" t="n">
+        <v>8.393276227229821</v>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>HepG2</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>36099</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>DOTAP</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>12.515</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="n">
+        <v>4</v>
+      </c>
+      <c r="G72" t="n">
+        <v>36</v>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+      <c r="I72" t="n">
+        <v>90</v>
+      </c>
+      <c r="J72" t="n">
+        <v>50</v>
+      </c>
+      <c r="K72" t="n">
+        <v>3</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0.8839038057831911</v>
+      </c>
+      <c r="M72" t="n">
+        <v>8.393276227229821</v>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>HepG2</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>36322</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>DOTAP</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+      <c r="D73" t="n">
+        <v>12.515</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="n">
+        <v>4</v>
+      </c>
+      <c r="G73" t="n">
+        <v>36</v>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+      <c r="I73" t="n">
+        <v>80</v>
+      </c>
+      <c r="J73" t="n">
+        <v>35</v>
+      </c>
+      <c r="K73" t="n">
+        <v>5</v>
+      </c>
+      <c r="L73" t="n">
+        <v>0.8839038057831911</v>
+      </c>
+      <c r="M73" t="n">
+        <v>8.393276227229821</v>
+      </c>
+      <c r="N73" t="inlineStr">
+        <is>
+          <t>HepG2</t>
+        </is>
+      </c>
+      <c r="O73" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
